--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Wnt1-Fzd2.xlsx
@@ -546,34 +546,34 @@
         <v>1</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M2">
-        <v>0.1278803333333333</v>
+        <v>0.06449866666666666</v>
       </c>
       <c r="N2">
-        <v>0.383641</v>
+        <v>0.193496</v>
       </c>
       <c r="O2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="P2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
       <c r="Q2">
-        <v>0.009113690342444445</v>
+        <v>0.004596647976888889</v>
       </c>
       <c r="R2">
-        <v>0.082023213082</v>
+        <v>0.041369831792</v>
       </c>
       <c r="S2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623641</v>
       </c>
       <c r="T2">
-        <v>0.009974564977605908</v>
+        <v>0.004525829983623642</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -620,10 +620,10 @@
         <v>31.859554</v>
       </c>
       <c r="O3">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="P3">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
       <c r="Q3">
         <v>0.7568484849231111</v>
@@ -632,10 +632,10 @@
         <v>6.811636364308</v>
       </c>
       <c r="S3">
-        <v>0.8283400145723324</v>
+        <v>0.745188142173877</v>
       </c>
       <c r="T3">
-        <v>0.8283400145723324</v>
+        <v>0.7451881421738772</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.072911</v>
+        <v>3.566885000000001</v>
       </c>
       <c r="N4">
-        <v>6.218733</v>
+        <v>10.700655</v>
       </c>
       <c r="O4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="P4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="Q4">
-        <v>0.1477308392073333</v>
+        <v>0.2542023822566667</v>
       </c>
       <c r="R4">
-        <v>1.329577552866</v>
+        <v>2.28782144031</v>
       </c>
       <c r="S4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
       <c r="T4">
-        <v>0.1616854204500617</v>
+        <v>0.2502860278424993</v>
       </c>
     </row>
   </sheetData>
